--- a/ELE1403-Tp3.xlsx
+++ b/ELE1403-Tp3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christophe\Google Drive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christophe\Desktop\BV-GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="9465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -350,34 +350,7 @@
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -398,32 +371,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -442,6 +409,39 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -450,6 +450,13 @@
     <cellStyle name="Texte explicatif" xfId="2" builtinId="53"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -460,20 +467,13 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
+        <top style="medium">
           <color indexed="64"/>
-        </left>
+        </top>
       </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -489,31 +489,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B10:G16" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="3">
-  <autoFilter ref="B10:G16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="B10:G16" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="B10:G16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Fréquence "/>
-    <tableColumn id="2" name="Puissance réelle"/>
-    <tableColumn id="3" name="Tension de ligne"/>
-    <tableColumn id="4" name="Courant de ligne"/>
-    <tableColumn id="5" name="Fp"/>
-    <tableColumn id="6" name="Vrotation"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Fréquence "/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Puissance réelle"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tension de ligne"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Courant de ligne"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fp"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Vrotation"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="B19:H28" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1" headerRowCellStyle="Texte explicatif">
-  <autoFilter ref="B19:H28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B19:H28" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0" headerRowCellStyle="Texte explicatif">
+  <autoFilter ref="B19:H28" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Fréquence "/>
-    <tableColumn id="2" name="Puissance réelle"/>
-    <tableColumn id="3" name="Tension de ligne"/>
-    <tableColumn id="4" name="Courant de ligne"/>
-    <tableColumn id="5" name="Fp"/>
-    <tableColumn id="6" name="Vrotation"/>
-    <tableColumn id="7" name="Colonne1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Fréquence "/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Puissance réelle"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Tension de ligne"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Courant de ligne"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Fp"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Vrotation"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Colonne1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -815,162 +815,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="7" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col min="2" max="7" width="20.33203125" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="E5" s="3" t="s">
+      <c r="B5" s="13"/>
+      <c r="E5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="19" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
         <v>3.1</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
       <c r="B12">
         <v>35</v>
       </c>
@@ -990,8 +990,8 @@
         <v>967</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
       <c r="B13">
         <v>45</v>
       </c>
@@ -1011,8 +1011,8 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
       <c r="B14">
         <v>55</v>
       </c>
@@ -1032,8 +1032,8 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
       <c r="B15">
         <v>60</v>
       </c>
@@ -1053,70 +1053,73 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+    <row r="16" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="16"/>
+      <c r="B16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <v>3.2</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="7" t="s">
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7" t="s">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
         <v>0</v>
       </c>
       <c r="B21">
@@ -1138,8 +1141,8 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
         <v>0.25</v>
       </c>
       <c r="B22">
@@ -1161,8 +1164,8 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
         <v>0.5</v>
       </c>
       <c r="B23">
@@ -1184,8 +1187,8 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
         <v>0.75</v>
       </c>
       <c r="B24">
@@ -1207,8 +1210,8 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
+    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
         <v>1</v>
       </c>
       <c r="B25">
@@ -1230,8 +1233,8 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
         <v>1.25</v>
       </c>
       <c r="B26">
@@ -1253,8 +1256,8 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
         <v>1.5</v>
       </c>
       <c r="B27">
@@ -1276,8 +1279,8 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
         <v>1.75</v>
       </c>
       <c r="B28">
@@ -1304,15 +1307,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A6:D9"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:G9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A6:D9"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:G9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
